--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\flutter-project\my_recipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD775A7F-E21C-4E0C-BDDB-041869B41CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AA0985-F247-4196-9E1C-BC0221592013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{2A777920-7CAE-4943-9F16-949BA6345FF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{2A777920-7CAE-4943-9F16-949BA6345FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="機能" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ブロック図・クラス図" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,25 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>材料</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手順</t>
-    <rPh sb="0" eb="2">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>ホーム画面</t>
     <rPh sb="3" eb="5">
@@ -150,6 +133,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -181,12 +168,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -235,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +240,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,13 +589,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
+      <xdr:colOff>69849</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>87155</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -616,8 +612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="603250" y="565150"/>
-          <a:ext cx="768350" cy="254000"/>
+          <a:off x="3549898" y="568636"/>
+          <a:ext cx="1891179" cy="255743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -651,7 +647,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>肉料理</a:t>
+            <a:t>検索</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1823,14 +1819,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1845,8 +1841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6775450" y="2057400"/>
-          <a:ext cx="1695450" cy="171450"/>
+          <a:off x="9745009" y="2683186"/>
+          <a:ext cx="1701426" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1888,14 +1884,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>193862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1910,8 +1906,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6775450" y="2508250"/>
-          <a:ext cx="1695450" cy="508000"/>
+          <a:off x="9745009" y="3135779"/>
+          <a:ext cx="1701426" cy="513230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1975,8 +1971,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9601200" y="457200"/>
-          <a:ext cx="2146300" cy="2743200"/>
+          <a:off x="12581716" y="460686"/>
+          <a:ext cx="2154268" cy="3685490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2284,201 +2280,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F4B73E-1B55-45A4-A8BB-F6A4891A0F0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9709150" y="1600200"/>
-          <a:ext cx="1695450" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A271F0E9-4268-40B3-9DB5-1C7AC033089F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9709150" y="2057400"/>
-          <a:ext cx="1695450" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99A46D3-EA0B-4996-BB79-23A091A320C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9709150" y="2508250"/>
-          <a:ext cx="1695450" cy="469900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -3205,6 +3006,867 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>31127</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>192987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>192990</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>174311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099534DE-BE2B-E05C-010D-A4766FC5F093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9668186" y="1344703"/>
+          <a:ext cx="697255" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76823</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>37356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>172073</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>208806</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0F31C4-0930-43B3-8754-8B50C466C0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9713882" y="2110444"/>
+          <a:ext cx="1701426" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>43578</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>205441</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B7FE01-41B7-4D52-99CB-2DDADCEF315D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9680637" y="1842745"/>
+          <a:ext cx="697255" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>説明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>217892</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>62255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470E5ACE-ECF9-EF60-6C3A-5962B04E9B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9693088" y="2384363"/>
+          <a:ext cx="697255" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>材料</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>68480</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>230343</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0FE43A7-2734-4148-8321-7CA66105526A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705539" y="2901078"/>
+          <a:ext cx="697255" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>手順</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>163974</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>18681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>259224</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E8F9A8-3B90-4618-A32A-0BE69B69D83D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12745690" y="1631083"/>
+          <a:ext cx="1701426" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>163974</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>259224</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337C8075-7FF2-41C4-ACC4-582EC7744E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12745690" y="2701867"/>
+          <a:ext cx="1701426" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>163974</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>259224</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3146CFB9-B108-48A1-B16B-A1D9B762C144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12745690" y="3154460"/>
+          <a:ext cx="1701426" cy="194854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>87151</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>211668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>249014</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>192992</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E023169C-464A-4382-8EFA-7EB3B7DB6456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12668867" y="1363384"/>
+          <a:ext cx="697255" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>132847</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>56037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>228097</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>227487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555E4E24-E188-4F59-8A0B-BE22DB425954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12714563" y="2129125"/>
+          <a:ext cx="1701426" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>99602</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>261465</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B442A88-9CCD-47B5-8332-503CAEB89DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12681318" y="1861426"/>
+          <a:ext cx="697255" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>説明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>112053</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>6220</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80936</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A975F56-7335-4273-9296-1A197767630B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12693769" y="2403044"/>
+          <a:ext cx="697255" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>材料</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>124504</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>18671</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96D9722-785C-4AE0-96A4-ED0530DDFCA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12706220" y="2919759"/>
+          <a:ext cx="697255" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>手順</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4525,59 +5187,59 @@
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4588,59 +5250,296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92615619-517B-4E89-8BF0-0DAF2C9F4D18}">
-  <dimension ref="E7:AY20"/>
+  <dimension ref="B2:BG21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="102" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="102" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BG14" sqref="BG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="7" spans="37:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="AK7" t="s">
+    <row r="2" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="BG14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:51" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:51" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:51" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:51" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="P20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="37:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="AK9" t="s">
+      <c r="AA20" t="s">
         <v>1</v>
       </c>
-      <c r="AV9" t="s">
-        <v>1</v>
+      <c r="AM20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="11" spans="37:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="AK11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="5:51" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>6</v>
-      </c>
+    <row r="21" spans="2:51" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4648,7 +5547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7A9381-0A36-489D-92F2-86C3CFBA264C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
